--- a/ref/Cronograma.xlsx
+++ b/ref/Cronograma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae51ece41dcfa04f/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae51ece41dcfa04f/Projetos/MyHabits/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4D361C20488DEA4E38A0AC441C5AE25ADEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72E19A10-507F-4E10-A4E6-8FD5FA4E5282}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_AD4D361C20488DEA4E38A0AC441C5AE25ADEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42E8CAD1-5363-48F9-985F-AAB71B5E3C09}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,20 +232,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="178" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3:F12"/>
+      <selection pane="topRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,32 +543,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
@@ -577,13 +577,13 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>3</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>4</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>5</v>
       </c>
       <c r="H3" s="1">
@@ -630,7 +630,7 @@
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -639,7 +639,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -650,7 +650,7 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="10"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -662,7 +662,7 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="10"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -677,7 +677,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -697,26 +697,26 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="10"/>
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="14"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>

--- a/ref/Cronograma.xlsx
+++ b/ref/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae51ece41dcfa04f/Projetos/MyHabits/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_AD4D361C20488DEA4E38A0AC441C5AE25ADEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42E8CAD1-5363-48F9-985F-AAB71B5E3C09}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_AD4D361C20488DEA4E38A0AC441C5AE25ADEDD80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5995B2B4-1939-48A2-9F0B-459306A8D0FE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4890" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>out</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Validação Nutri e Psico</t>
   </si>
   <si>
-    <t>Validação Perfil com Psico</t>
-  </si>
-  <si>
     <t>questionario Definição de perfil</t>
   </si>
   <si>
@@ -64,6 +61,12 @@
   </si>
   <si>
     <t>Plataforma Psico</t>
+  </si>
+  <si>
+    <t>Validação Perfil com Psico ok</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -220,11 +223,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -239,13 +253,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,11 +549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T12"/>
+  <dimension ref="A2:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="178" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H12" sqref="H12"/>
+      <selection pane="topRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,35 +561,35 @@
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -580,13 +599,13 @@
       <c r="E3" s="7">
         <v>3</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="20">
         <v>4</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="8">
         <v>6</v>
       </c>
       <c r="I3" s="1">
@@ -626,31 +645,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="10"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -658,11 +679,12 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="10"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -670,15 +692,15 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -691,32 +713,47 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F9" s="19"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="10"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
